--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New8VIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New8VIN_CA_SELECT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSAA\CODE\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,177 +24,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>VIN</t>
   </si>
   <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>MAKE</t>
+  </si>
+  <si>
+    <t>MAKE_TEXT</t>
+  </si>
+  <si>
+    <t>MODEL_TEXT</t>
+  </si>
+  <si>
+    <t>SERIES_TEXT</t>
+  </si>
+  <si>
+    <t>MFG_BAS_MSRP</t>
+  </si>
+  <si>
+    <t>BODY</t>
+  </si>
+  <si>
+    <t>BODYTYPE_TEXT</t>
+  </si>
+  <si>
+    <t>SEGMENTATION_CD</t>
+  </si>
+  <si>
+    <t>BODY_STYLE_CD</t>
+  </si>
+  <si>
+    <t>BODYSHELL</t>
+  </si>
+  <si>
+    <t>ENGINE_NAME</t>
+  </si>
+  <si>
+    <t>NUMOFCYLINDERS</t>
+  </si>
+  <si>
+    <t>ENG_FUEL_CD</t>
+  </si>
+  <si>
+    <t>ENG_DISPLCMNT_CI</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>WHEELDRIVE</t>
+  </si>
+  <si>
+    <t>RESTRAINTSCODE</t>
+  </si>
+  <si>
+    <t>RESTRAINTSCODE_TEXT</t>
+  </si>
+  <si>
+    <t>ANTILOCKCODE</t>
+  </si>
+  <si>
+    <t>ANTILOCKCODE_TEXT</t>
+  </si>
+  <si>
+    <t>ANTITHEFTCODE</t>
+  </si>
+  <si>
+    <t>ANTITHEFTCODE_TEXT</t>
+  </si>
+  <si>
+    <t>COLL_SYMBOL</t>
+  </si>
+  <si>
+    <t>COMP_SYMBOL</t>
+  </si>
+  <si>
+    <t>ALTFUEL</t>
+  </si>
+  <si>
+    <t>WAG</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>000R</t>
+  </si>
+  <si>
+    <t>DUAL AIR BAGS FRONT</t>
+  </si>
+  <si>
+    <t>4 WHEEL STANDARD</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>B-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>BI_SYMBOL</t>
+  </si>
+  <si>
+    <t>PD_SYMBOL</t>
+  </si>
+  <si>
+    <t>UM_SYMBOL</t>
+  </si>
+  <si>
+    <t>MP_SYMBOL</t>
+  </si>
+  <si>
+    <t>ENTRYDATE</t>
+  </si>
+  <si>
+    <t>VALID</t>
+  </si>
+  <si>
+    <t>ANTITHEFT_DISCOUNT</t>
+  </si>
+  <si>
+    <t>RESTRAINTS_DISCOUNT</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>7MSRP15H&amp;V</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>8L V12</t>
+  </si>
+  <si>
+    <t>4WD</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>PASSAT</t>
+  </si>
+  <si>
+    <t>PASSAT S</t>
+  </si>
+  <si>
+    <t>SEDAN</t>
+  </si>
+  <si>
     <t>VERSION</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
-    <t>MAKE</t>
-  </si>
-  <si>
-    <t>MAKE_TEXT</t>
-  </si>
-  <si>
-    <t>MODEL_TEXT</t>
-  </si>
-  <si>
-    <t>SERIES_TEXT</t>
-  </si>
-  <si>
-    <t>MFG_BAS_MSRP</t>
-  </si>
-  <si>
-    <t>BODY</t>
-  </si>
-  <si>
-    <t>BODYTYPE_TEXT</t>
-  </si>
-  <si>
-    <t>SEGMENTATION_CD</t>
-  </si>
-  <si>
-    <t>BODY_STYLE_CD</t>
-  </si>
-  <si>
-    <t>BODYSHELL</t>
-  </si>
-  <si>
-    <t>ENGINE_NAME</t>
-  </si>
-  <si>
-    <t>NUMOFCYLINDERS</t>
-  </si>
-  <si>
-    <t>ENG_FUEL_CD</t>
-  </si>
-  <si>
-    <t>ENG_DISPLCMNT_CI</t>
-  </si>
-  <si>
-    <t>WD</t>
-  </si>
-  <si>
-    <t>WHEELDRIVE</t>
-  </si>
-  <si>
-    <t>RESTRAINTSCODE</t>
-  </si>
-  <si>
-    <t>RESTRAINTSCODE_TEXT</t>
-  </si>
-  <si>
-    <t>ANTILOCKCODE</t>
-  </si>
-  <si>
-    <t>ANTILOCKCODE_TEXT</t>
-  </si>
-  <si>
-    <t>ANTITHEFTCODE</t>
-  </si>
-  <si>
-    <t>ANTITHEFTCODE_TEXT</t>
-  </si>
-  <si>
-    <t>COLL_SYMBOL</t>
-  </si>
-  <si>
-    <t>COMP_SYMBOL</t>
-  </si>
-  <si>
-    <t>ALTFUEL</t>
-  </si>
-  <si>
-    <t>WAG</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>000R</t>
-  </si>
-  <si>
-    <t>DUAL AIR BAGS FRONT</t>
-  </si>
-  <si>
-    <t>4 WHEEL STANDARD</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>B-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>BI_SYMBOL</t>
-  </si>
-  <si>
-    <t>PD_SYMBOL</t>
-  </si>
-  <si>
-    <t>UM_SYMBOL</t>
-  </si>
-  <si>
-    <t>MP_SYMBOL</t>
-  </si>
-  <si>
-    <t>ENTRYDATE</t>
-  </si>
-  <si>
-    <t>VALID</t>
-  </si>
-  <si>
-    <t>ANTITHEFT_DISCOUNT</t>
-  </si>
-  <si>
-    <t>RESTRAINTS_DISCOUNT</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>STAT</t>
-  </si>
-  <si>
-    <t>CHOICE_TIER</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>7MSRP15H&amp;V</t>
-  </si>
-  <si>
-    <t>VOLKSWAGEN</t>
-  </si>
-  <si>
-    <t>8L V12</t>
-  </si>
-  <si>
-    <t>4WD</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>PASSAT</t>
-  </si>
-  <si>
-    <t>PASSAT S</t>
-  </si>
-  <si>
-    <t>SEDAN</t>
   </si>
   <si>
     <t>SYMBOL_2000</t>
@@ -204,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +203,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,12 +240,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -533,114 +528,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" customWidth="1"/>
-    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" customWidth="1"/>
-    <col min="23" max="23" width="22.33203125" customWidth="1"/>
-    <col min="24" max="24" width="20.88671875" customWidth="1"/>
-    <col min="25" max="25" width="34.6640625" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" customWidth="1"/>
-    <col min="28" max="29" width="16.33203125" customWidth="1"/>
-    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.88671875" customWidth="1"/>
+    <col min="22" max="22" width="22.33203125" customWidth="1"/>
+    <col min="23" max="23" width="20.88671875" customWidth="1"/>
+    <col min="24" max="24" width="34.6640625" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" customWidth="1"/>
+    <col min="26" max="26" width="16.33203125" customWidth="1"/>
+    <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>25</v>
@@ -649,150 +642,138 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C2" s="2">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>88888</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O2">
         <v>12</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q2">
         <v>214</v>
       </c>
       <c r="R2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="S2">
         <v>4</v>
       </c>
       <c r="T2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" t="s">
         <v>30</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
       </c>
       <c r="V2">
         <v>2</v>
       </c>
       <c r="W2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" t="s">
         <v>32</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2">
+        <v>66</v>
+      </c>
+      <c r="AA2">
+        <v>55</v>
+      </c>
+      <c r="AB2" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2">
-        <v>66</v>
-      </c>
-      <c r="AB2">
-        <v>55</v>
-      </c>
       <c r="AC2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="AE2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="AG2">
+        <v>20000101</v>
       </c>
       <c r="AH2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI2">
-        <v>20000101</v>
+        <v>34</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>34</v>
       </c>
       <c r="AJ2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
